--- a/out/bed_load_2016.xlsx
+++ b/out/bed_load_2016.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H725"/>
+  <dimension ref="A1:I725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,20 +388,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>D50_A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bsd_B</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>D50_B</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>G_A_G_Б</t>
         </is>
@@ -3593,21 +3598,26 @@
         <v>1.69</v>
       </c>
       <c r="C523">
-        <v>1986.803407978141</v>
+        <v>1.986803407978141</v>
       </c>
       <c r="D523">
         <v>0.052</v>
       </c>
-      <c r="E523">
-        <v>2.241233766233766</v>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="F523">
+        <v>2.918404735062006</v>
+      </c>
+      <c r="G523">
         <v>0.01008</v>
       </c>
-      <c r="G523">
-        <v>1.676082251082251</v>
-      </c>
       <c r="H523">
+        <v>3.102363782051282</v>
+      </c>
+      <c r="I523">
         <v>0.04192</v>
       </c>
     </row>
@@ -3619,21 +3629,26 @@
         <v>1.69</v>
       </c>
       <c r="C524">
-        <v>1986.803407978141</v>
+        <v>1.986803407978141</v>
       </c>
       <c r="D524">
         <v>0.01008</v>
       </c>
-      <c r="E524">
-        <v>2.241233766233766</v>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F524">
+        <v>2.918404735062006</v>
+      </c>
+      <c r="G524">
         <v>0.01008</v>
       </c>
-      <c r="G524">
-        <v>1.676082251082251</v>
-      </c>
       <c r="H524">
+        <v>3.102363782051282</v>
+      </c>
+      <c r="I524">
         <v>0</v>
       </c>
     </row>
@@ -4037,21 +4052,26 @@
         <v>2.81</v>
       </c>
       <c r="C574">
-        <v>2209.895716032906</v>
+        <v>2.209895716032906</v>
       </c>
       <c r="D574">
         <v>0.212908</v>
       </c>
-      <c r="E574">
-        <v>6.267965367965367</v>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F574">
+        <v>2.3122005748962</v>
+      </c>
+      <c r="G574">
         <v>0.03982666666666666</v>
       </c>
-      <c r="G574">
-        <v>3.860930735930736</v>
-      </c>
       <c r="H574">
+        <v>8.658980582524272</v>
+      </c>
+      <c r="I574">
         <v>0.1730813333333333</v>
       </c>
     </row>
@@ -4063,21 +4083,26 @@
         <v>2.81</v>
       </c>
       <c r="C575">
-        <v>2209.895716032906</v>
+        <v>2.209895716032906</v>
       </c>
       <c r="D575">
         <v>0.03982666666666666</v>
       </c>
-      <c r="E575">
-        <v>6.267965367965367</v>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="F575">
+        <v>2.3122005748962</v>
+      </c>
+      <c r="G575">
         <v>0.03982666666666666</v>
       </c>
-      <c r="G575">
-        <v>3.860930735930736</v>
-      </c>
       <c r="H575">
+        <v>8.658980582524272</v>
+      </c>
+      <c r="I575">
         <v>0</v>
       </c>
     </row>
@@ -4305,21 +4330,26 @@
         <v>2.71</v>
       </c>
       <c r="C603">
-        <v>2820.324967546291</v>
+        <v>2.820324967546291</v>
       </c>
       <c r="D603">
         <v>0.5366057142857144</v>
       </c>
-      <c r="E603">
-        <v>9.999242424242423</v>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F603">
+        <v>2.213748322790876</v>
+      </c>
+      <c r="G603">
         <v>0.0592</v>
       </c>
-      <c r="G603">
-        <v>2.387337662337663</v>
-      </c>
       <c r="H603">
+        <v>5.32311776061776</v>
+      </c>
+      <c r="I603">
         <v>0.4774057142857143</v>
       </c>
     </row>
@@ -4331,21 +4361,26 @@
         <v>2.71</v>
       </c>
       <c r="C604">
-        <v>2820.324967546291</v>
+        <v>2.820324967546291</v>
       </c>
       <c r="D604">
         <v>0.0592</v>
       </c>
-      <c r="E604">
-        <v>9.999242424242423</v>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="F604">
+        <v>2.213748322790876</v>
+      </c>
+      <c r="G604">
         <v>0.0592</v>
       </c>
-      <c r="G604">
-        <v>2.387337662337663</v>
-      </c>
       <c r="H604">
+        <v>5.32311776061776</v>
+      </c>
+      <c r="I604">
         <v>0</v>
       </c>
     </row>
@@ -5285,21 +5320,26 @@
         <v>3.08</v>
       </c>
       <c r="C721">
-        <v>9546.906027347814</v>
+        <v>9.546906027347813</v>
       </c>
       <c r="D721">
         <v>0.09000000000000001</v>
       </c>
-      <c r="E721">
-        <v>7.274025974025973</v>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="F721">
+        <v>6.7212</v>
+      </c>
+      <c r="G721">
         <v>0.019588</v>
       </c>
-      <c r="G721">
-        <v>0.4937229437229438</v>
-      </c>
       <c r="H721">
+        <v>2.290160642570281</v>
+      </c>
+      <c r="I721">
         <v>0.070412</v>
       </c>
     </row>
@@ -5311,21 +5351,26 @@
         <v>3.08</v>
       </c>
       <c r="C722">
-        <v>9546.906027347814</v>
+        <v>9.546906027347813</v>
       </c>
       <c r="D722">
         <v>0.019588</v>
       </c>
-      <c r="E722">
-        <v>7.274025974025973</v>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="F722">
+        <v>6.7212</v>
+      </c>
+      <c r="G722">
         <v>0.019588</v>
       </c>
-      <c r="G722">
-        <v>0.4937229437229438</v>
-      </c>
       <c r="H722">
+        <v>2.290160642570281</v>
+      </c>
+      <c r="I722">
         <v>0</v>
       </c>
     </row>
@@ -5372,17 +5417,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ssd</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ssd</t>
+          <t>bsd</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bsd</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -5413,25 +5458,27 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.69</v>
+        <v>1.986803407978141</v>
       </c>
       <c r="B2">
-        <v>1986.803407978141</v>
-      </c>
-      <c r="C2">
         <v>0.052</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="D2" s="2">
         <v>42543.58333333333</v>
       </c>
       <c r="E2">
-        <v>2.241233766233766</v>
+        <v>2.918404735062006</v>
       </c>
       <c r="F2">
         <v>0.01008</v>
       </c>
       <c r="G2">
-        <v>1.676082251082251</v>
+        <v>3.102363782051282</v>
       </c>
       <c r="H2">
         <v>0.04192</v>
@@ -5439,25 +5486,27 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.69</v>
+        <v>1.986803407978141</v>
       </c>
       <c r="B3">
-        <v>1986.803407978141</v>
-      </c>
-      <c r="C3">
         <v>0.01008</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="D3" s="2">
         <v>42543.58333333333</v>
       </c>
       <c r="E3">
-        <v>2.241233766233766</v>
+        <v>2.918404735062006</v>
       </c>
       <c r="F3">
         <v>0.01008</v>
       </c>
       <c r="G3">
-        <v>1.676082251082251</v>
+        <v>3.102363782051282</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5465,25 +5514,27 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2.81</v>
+        <v>2.209895716032906</v>
       </c>
       <c r="B4">
-        <v>2209.895716032906</v>
-      </c>
-      <c r="C4">
         <v>0.212908</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="D4" s="2">
         <v>42545.66666666667</v>
       </c>
       <c r="E4">
-        <v>6.267965367965367</v>
+        <v>2.3122005748962</v>
       </c>
       <c r="F4">
         <v>0.03982666666666666</v>
       </c>
       <c r="G4">
-        <v>3.860930735930736</v>
+        <v>8.658980582524272</v>
       </c>
       <c r="H4">
         <v>0.1730813333333333</v>
@@ -5491,25 +5542,27 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2.81</v>
+        <v>2.209895716032906</v>
       </c>
       <c r="B5">
-        <v>2209.895716032906</v>
-      </c>
-      <c r="C5">
         <v>0.03982666666666666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="D5" s="2">
         <v>42545.66666666667</v>
       </c>
       <c r="E5">
-        <v>6.267965367965367</v>
+        <v>2.3122005748962</v>
       </c>
       <c r="F5">
         <v>0.03982666666666666</v>
       </c>
       <c r="G5">
-        <v>3.860930735930736</v>
+        <v>8.658980582524272</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5517,25 +5570,27 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.71</v>
+        <v>2.820324967546291</v>
       </c>
       <c r="B6">
-        <v>2820.324967546291</v>
-      </c>
-      <c r="C6">
         <v>0.5366057142857144</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="D6" s="2">
         <v>42546.83333333333</v>
       </c>
       <c r="E6">
-        <v>9.999242424242423</v>
+        <v>2.213748322790876</v>
       </c>
       <c r="F6">
         <v>0.0592</v>
       </c>
       <c r="G6">
-        <v>2.387337662337663</v>
+        <v>5.32311776061776</v>
       </c>
       <c r="H6">
         <v>0.4774057142857143</v>
@@ -5543,25 +5598,27 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.71</v>
+        <v>2.820324967546291</v>
       </c>
       <c r="B7">
-        <v>2820.324967546291</v>
-      </c>
-      <c r="C7">
         <v>0.0592</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="D7" s="2">
         <v>42546.83333333333</v>
       </c>
       <c r="E7">
-        <v>9.999242424242423</v>
+        <v>2.213748322790876</v>
       </c>
       <c r="F7">
         <v>0.0592</v>
       </c>
       <c r="G7">
-        <v>2.387337662337663</v>
+        <v>5.32311776061776</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5569,25 +5626,27 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>3.08</v>
+        <v>9.546906027347813</v>
       </c>
       <c r="B8">
-        <v>9546.906027347814</v>
-      </c>
-      <c r="C8">
         <v>0.09000000000000001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="D8" s="2">
         <v>42551.70833333333</v>
       </c>
       <c r="E8">
-        <v>7.274025974025973</v>
+        <v>6.7212</v>
       </c>
       <c r="F8">
         <v>0.019588</v>
       </c>
       <c r="G8">
-        <v>0.4937229437229438</v>
+        <v>2.290160642570281</v>
       </c>
       <c r="H8">
         <v>0.070412</v>
@@ -5595,25 +5654,27 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3.08</v>
+        <v>9.546906027347813</v>
       </c>
       <c r="B9">
-        <v>9546.906027347814</v>
-      </c>
-      <c r="C9">
         <v>0.019588</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="D9" s="2">
         <v>42551.70833333333</v>
       </c>
       <c r="E9">
-        <v>7.274025974025973</v>
+        <v>6.7212</v>
       </c>
       <c r="F9">
         <v>0.019588</v>
       </c>
       <c r="G9">
-        <v>0.4937229437229438</v>
+        <v>2.290160642570281</v>
       </c>
       <c r="H9">
         <v>0</v>
